--- a/VersionRecords/Version 3.3.0.1/版本Bug和特性计划及评审表v3.3.0.1_发现组.xlsx
+++ b/VersionRecords/Version 3.3.0.1/版本Bug和特性计划及评审表v3.3.0.1_发现组.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\mogo_doc\Mogo_Doc\VersionRecords\Version 3.3.0.1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="14070"/>
   </bookViews>
@@ -16,12 +11,12 @@
     <sheet name="数据修复" sheetId="2" r:id="rId2"/>
     <sheet name="需要修改的配置文件" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
   <si>
     <t>No</t>
   </si>
@@ -186,6 +181,18 @@
   </si>
   <si>
     <t>房东PC</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>余星赞</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -919,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1067,10 +1074,18 @@
         <v>46</v>
       </c>
       <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="28"/>
+      <c r="L3" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="N3" s="19">
+        <v>42564</v>
+      </c>
+      <c r="O3" s="28" t="s">
+        <v>51</v>
+      </c>
       <c r="P3" s="21"/>
       <c r="Q3" s="21"/>
       <c r="R3" s="21"/>
@@ -1103,10 +1118,18 @@
         <v>46</v>
       </c>
       <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="28"/>
+      <c r="L4" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="N4" s="19">
+        <v>42564</v>
+      </c>
+      <c r="O4" s="28" t="s">
+        <v>51</v>
+      </c>
       <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
       <c r="R4" s="21"/>

--- a/VersionRecords/Version 3.3.0.1/版本Bug和特性计划及评审表v3.3.0.1_发现组.xlsx
+++ b/VersionRecords/Version 3.3.0.1/版本Bug和特性计划及评审表v3.3.0.1_发现组.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="54">
   <si>
     <t>No</t>
   </si>
@@ -193,6 +193,14 @@
   </si>
   <si>
     <t>能</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现组</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -926,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1037,11 +1045,21 @@
       <c r="J2" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="28"/>
+      <c r="K2" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="19">
+        <v>42564</v>
+      </c>
+      <c r="O2" s="28" t="s">
+        <v>52</v>
+      </c>
       <c r="P2" s="33"/>
       <c r="Q2" s="33"/>
       <c r="R2" s="33"/>
@@ -1073,7 +1091,9 @@
       <c r="J3" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="K3" s="18"/>
+      <c r="K3" s="18" t="s">
+        <v>53</v>
+      </c>
       <c r="L3" s="18" t="s">
         <v>49</v>
       </c>
@@ -1117,7 +1137,9 @@
       <c r="J4" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="K4" s="18"/>
+      <c r="K4" s="18" t="s">
+        <v>53</v>
+      </c>
       <c r="L4" s="18" t="s">
         <v>49</v>
       </c>
